--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +970,29 @@
         <v>0.15220385674931131</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B26">
+        <v>48527</v>
+      </c>
+      <c r="C26">
+        <v>11555</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26" si="3">B26-B25</f>
+        <v>457</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="4">C26-C25</f>
+        <v>130</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="5">E26/D26</f>
+        <v>0.28446389496717722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,6 +993,29 @@
         <v>0.28446389496717722</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B27">
+        <v>48905</v>
+      </c>
+      <c r="C27">
+        <v>11689</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="6">B27-B26</f>
+        <v>378</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="7">C27-C26</f>
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="8">E27/D27</f>
+        <v>0.35449735449735448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1016,29 @@
         <v>0.35449735449735448</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B28">
+        <v>50113</v>
+      </c>
+      <c r="C28">
+        <v>11921</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="9">B28-B27</f>
+        <v>1208</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="10">C28-C27</f>
+        <v>232</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="11">E28/D28</f>
+        <v>0.19205298013245034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:F28"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,6 +1039,29 @@
         <v>0.19205298013245034</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B29">
+        <v>51352</v>
+      </c>
+      <c r="C29">
+        <v>12237</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29" si="12">B29-B28</f>
+        <v>1239</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="13">C29-C28</f>
+        <v>316</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="14">E29/D29</f>
+        <v>0.25504439063761097</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="D29" sqref="D29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,6 +1062,29 @@
         <v>0.25504439063761097</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B30">
+        <v>52600</v>
+      </c>
+      <c r="C30">
+        <v>12495</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="15">B30-B29</f>
+        <v>1248</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30" si="16">C30-C29</f>
+        <v>258</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30" si="17">E30/D30</f>
+        <v>0.20673076923076922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:F30"/>
+      <selection activeCell="D30" sqref="D30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1085,29 @@
         <v>0.20673076923076922</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B31">
+        <v>53910</v>
+      </c>
+      <c r="C31">
+        <v>12824</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="18">B31-B30</f>
+        <v>1310</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="19">C31-C30</f>
+        <v>329</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="20">E31/D31</f>
+        <v>0.25114503816793893</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F31"/>
+      <selection activeCell="D31" sqref="D31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1108,29 @@
         <v>0.25114503816793893</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B32">
+        <v>55004</v>
+      </c>
+      <c r="C32">
+        <v>13023</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="21">B32-B31</f>
+        <v>1094</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32" si="22">C32-C31</f>
+        <v>199</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="23">E32/D32</f>
+        <v>0.18190127970749542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:F32"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,6 +1131,29 @@
         <v>0.18190127970749542</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B33">
+        <v>55455</v>
+      </c>
+      <c r="C33">
+        <v>13160</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="24">B33-B32</f>
+        <v>451</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="25">C33-C32</f>
+        <v>137</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="26">E33/D33</f>
+        <v>0.30376940133037694</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D33" sqref="D33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1154,29 @@
         <v>0.30376940133037694</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B34">
+        <v>55796</v>
+      </c>
+      <c r="C34">
+        <v>13250</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34" si="27">B34-B33</f>
+        <v>341</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="28">C34-C33</f>
+        <v>90</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="29">E34/D34</f>
+        <v>0.26392961876832843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1177,52 @@
         <v>0.26392961876832843</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B35">
+        <v>57162</v>
+      </c>
+      <c r="C35">
+        <v>13501</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="30">B35-B34</f>
+        <v>1366</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="31">C35-C34</f>
+        <v>251</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="32">E35/D35</f>
+        <v>0.18374816983894582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B36">
+        <v>58284</v>
+      </c>
+      <c r="C36">
+        <v>13688</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36" si="33">B36-B35</f>
+        <v>1122</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="34">C36-C35</f>
+        <v>187</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="35">E36/D36</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:F36"/>
+      <selection activeCell="D36" sqref="D36:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,6 +1223,29 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B37">
+        <v>59112</v>
+      </c>
+      <c r="C37">
+        <v>13946</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="36">B37-B36</f>
+        <v>828</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="37">C37-C36</f>
+        <v>258</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="38">E37/D37</f>
+        <v>0.31159420289855072</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:F37"/>
+      <selection activeCell="D37" sqref="D37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,6 +1246,29 @@
         <v>0.31159420289855072</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B38">
+        <v>59808</v>
+      </c>
+      <c r="C38">
+        <v>14195</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="39">B38-B37</f>
+        <v>696</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="40">C38-C37</f>
+        <v>249</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38" si="41">E38/D38</f>
+        <v>0.35775862068965519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:F38"/>
+      <selection activeCell="D38" sqref="D38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,6 +1269,29 @@
         <v>0.35775862068965519</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B39">
+        <v>59971</v>
+      </c>
+      <c r="C39">
+        <v>14287</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="42">B39-B38</f>
+        <v>163</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="43">C39-C38</f>
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39" si="44">E39/D39</f>
+        <v>0.56441717791411039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1292,29 @@
         <v>0.56441717791411039</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B40">
+        <v>60104</v>
+      </c>
+      <c r="C40">
+        <v>14349</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="45">B40-B39</f>
+        <v>133</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="46">C40-C39</f>
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="47">E40/D40</f>
+        <v>0.46616541353383456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F40"/>
+      <selection activeCell="D40" sqref="D40:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,6 +1315,29 @@
         <v>0.46616541353383456</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B41">
+        <v>60207</v>
+      </c>
+      <c r="C41">
+        <v>14394</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="48">B41-B40</f>
+        <v>103</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="49">C41-C40</f>
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="50">E41/D41</f>
+        <v>0.43689320388349512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:F41"/>
+      <selection activeCell="D41" sqref="D41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1338,29 @@
         <v>0.43689320388349512</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B42">
+        <v>60877</v>
+      </c>
+      <c r="C42">
+        <v>14639</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="51">B42-B41</f>
+        <v>670</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="52">C42-C41</f>
+        <v>245</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="53">E42/D42</f>
+        <v>0.36567164179104478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:F42"/>
+      <selection activeCell="D42" sqref="D42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,6 +1361,29 @@
         <v>0.36567164179104478</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B43">
+        <v>61432</v>
+      </c>
+      <c r="C43">
+        <v>14870</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="54">B43-B42</f>
+        <v>555</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="55">C43-C42</f>
+        <v>231</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="56">E43/D43</f>
+        <v>0.41621621621621624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -25,9 +25,6 @@
     <t>Ntest.dia</t>
   </si>
   <si>
-    <t>Proporcion.Positivos</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Confirmados.dia</t>
+  </si>
+  <si>
+    <t>Prop.Positivos</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -432,7 +432,7 @@
         <v>3793</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>0.220100045475216</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>0.19381107491856678</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,6 +1382,52 @@
       <c r="F43">
         <f t="shared" ref="F43" si="56">E43/D43</f>
         <v>0.41621621621621624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B44">
+        <v>61958</v>
+      </c>
+      <c r="C44">
+        <v>15050</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D45" si="57">B44-B43</f>
+        <v>526</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E45" si="58">C44-C43</f>
+        <v>180</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:F45" si="59">E44/D44</f>
+        <v>0.34220532319391633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B45">
+        <v>62401</v>
+      </c>
+      <c r="C45">
+        <v>15228</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="57"/>
+        <v>443</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="58"/>
+        <v>178</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="59"/>
+        <v>0.40180586907449212</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,6 +1430,29 @@
         <v>0.40180586907449212</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B46">
+        <v>62735</v>
+      </c>
+      <c r="C46">
+        <v>15403</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="60">B46-B45</f>
+        <v>334</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="61">C46-C45</f>
+        <v>175</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46" si="62">E46/D46</f>
+        <v>0.5239520958083832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,6 +1453,29 @@
         <v>0.5239520958083832</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B47">
+        <v>62857</v>
+      </c>
+      <c r="C47">
+        <v>15478</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="63">B47-B46</f>
+        <v>122</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="64">C47-C46</f>
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47" si="65">E47/D47</f>
+        <v>0.61475409836065575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="D47" sqref="D47:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,6 +1476,29 @@
         <v>0.61475409836065575</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B48">
+        <v>62970</v>
+      </c>
+      <c r="C48">
+        <v>15522</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="66">B48-B47</f>
+        <v>113</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="67">C48-C47</f>
+        <v>44</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48" si="68">E48/D48</f>
+        <v>0.38938053097345132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -13,8 +13,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>FRS</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Personas testadas (aunque se les haya hecho varias PCR o test): https://sevilla.abc.es/andalucia/sevi-perdido-andalucia-casi-160000-pruebas-coronavirus-202005052257_noticia.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/236000.html</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -45,6 +83,15 @@
   <si>
     <t>Prop.Positivos</t>
   </si>
+  <si>
+    <t>nPCR</t>
+  </si>
+  <si>
+    <t>ConfirmadosPCR</t>
+  </si>
+  <si>
+    <t>ntestrapido</t>
+  </si>
 </sst>
 </file>
 
@@ -53,13 +100,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,20 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:F48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,10 +473,19 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43916</v>
       </c>
@@ -431,11 +495,11 @@
       <c r="C2">
         <v>3793</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43917</v>
       </c>
@@ -457,11 +521,11 @@
         <f t="shared" ref="F3:F25" si="0">E3/D3</f>
         <v>0.220100045475216</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -484,7 +548,7 @@
         <v>0.91216216216216217</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43919</v>
       </c>
@@ -507,7 +571,7 @@
         <v>0.26464128843338214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -530,7 +594,7 @@
         <v>0.46772366930917325</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43921</v>
       </c>
@@ -553,7 +617,7 @@
         <v>0.29240957717778909</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43922</v>
       </c>
@@ -576,7 +640,7 @@
         <v>0.28292682926829266</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43923</v>
       </c>
@@ -599,7 +663,7 @@
         <v>0.22136563876651982</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43924</v>
       </c>
@@ -622,7 +686,7 @@
         <v>0.3016453382084095</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43925</v>
       </c>
@@ -645,7 +709,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43926</v>
       </c>
@@ -668,7 +732,7 @@
         <v>0.56451612903225812</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43927</v>
       </c>
@@ -691,7 +755,7 @@
         <v>0.31525423728813562</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43928</v>
       </c>
@@ -714,7 +778,7 @@
         <v>0.15829318651066759</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -737,7 +801,7 @@
         <v>0.16624685138539042</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43930</v>
       </c>
@@ -760,7 +824,7 @@
         <v>0.15591734502191609</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43931</v>
       </c>
@@ -783,7 +847,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43932</v>
       </c>
@@ -806,7 +870,7 @@
         <v>0.49081803005008345</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43933</v>
       </c>
@@ -829,7 +893,7 @@
         <v>0.34674329501915707</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43934</v>
       </c>
@@ -851,11 +915,11 @@
         <f t="shared" si="0"/>
         <v>0.19381107491856678</v>
       </c>
-      <c r="G20" t="s">
+      <c r="K20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43935</v>
       </c>
@@ -878,7 +942,7 @@
         <v>0.22900158478605387</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43936</v>
       </c>
@@ -901,7 +965,7 @@
         <v>0.21788283658787255</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43937</v>
       </c>
@@ -924,7 +988,7 @@
         <v>0.22841225626740946</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43938</v>
       </c>
@@ -947,7 +1011,7 @@
         <v>0.16012725344644752</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43939</v>
       </c>
@@ -970,7 +1034,7 @@
         <v>0.15220385674931131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43940</v>
       </c>
@@ -993,7 +1057,7 @@
         <v>0.28446389496717722</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43941</v>
       </c>
@@ -1016,7 +1080,7 @@
         <v>0.35449735449735448</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43942</v>
       </c>
@@ -1039,7 +1103,7 @@
         <v>0.19205298013245034</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43943</v>
       </c>
@@ -1062,7 +1126,7 @@
         <v>0.25504439063761097</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43944</v>
       </c>
@@ -1084,8 +1148,11 @@
         <f t="shared" ref="F30" si="17">E30/D30</f>
         <v>0.20673076923076922</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>68862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43945</v>
       </c>
@@ -1108,7 +1175,7 @@
         <v>0.25114503816793893</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43946</v>
       </c>
@@ -1131,7 +1198,7 @@
         <v>0.18190127970749542</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43947</v>
       </c>
@@ -1154,7 +1221,7 @@
         <v>0.30376940133037694</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43948</v>
       </c>
@@ -1177,7 +1244,7 @@
         <v>0.26392961876832843</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43949</v>
       </c>
@@ -1200,7 +1267,7 @@
         <v>0.18374816983894582</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43950</v>
       </c>
@@ -1223,7 +1290,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43951</v>
       </c>
@@ -1245,8 +1312,11 @@
         <f t="shared" ref="F37" si="38">E37/D37</f>
         <v>0.31159420289855072</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>100665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43952</v>
       </c>
@@ -1269,7 +1339,7 @@
         <v>0.35775862068965519</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43953</v>
       </c>
@@ -1292,7 +1362,7 @@
         <v>0.56441717791411039</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43954</v>
       </c>
@@ -1315,7 +1385,7 @@
         <v>0.46616541353383456</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43955</v>
       </c>
@@ -1338,7 +1408,7 @@
         <v>0.43689320388349512</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43956</v>
       </c>
@@ -1361,7 +1431,7 @@
         <v>0.36567164179104478</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43957</v>
       </c>
@@ -1384,7 +1454,7 @@
         <v>0.41621621621621624</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43958</v>
       </c>
@@ -1406,8 +1476,11 @@
         <f t="shared" ref="F44:F45" si="59">E44/D44</f>
         <v>0.34220532319391633</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>117200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43959</v>
       </c>
@@ -1430,7 +1503,7 @@
         <v>0.40180586907449212</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43960</v>
       </c>
@@ -1453,7 +1526,7 @@
         <v>0.5239520958083832</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43961</v>
       </c>
@@ -1476,7 +1549,7 @@
         <v>0.61475409836065575</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43962</v>
       </c>
@@ -1499,8 +1572,20 @@
         <v>0.38938053097345132</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43963</v>
+      </c>
+      <c r="G49">
+        <v>146979</v>
+      </c>
+      <c r="H49">
+        <v>222845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -87,10 +87,10 @@
     <t>nPCR</t>
   </si>
   <si>
-    <t>ConfirmadosPCR</t>
+    <t>ntestrapido</t>
   </si>
   <si>
-    <t>ntestrapido</t>
+    <t>https://twitter.com/AndaluciaJunta/status/1260859902098124800?s=20</t>
   </si>
 </sst>
 </file>
@@ -440,20 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,16 +475,13 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43916</v>
       </c>
@@ -495,11 +491,11 @@
       <c r="C2">
         <v>3793</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43917</v>
       </c>
@@ -521,11 +517,11 @@
         <f t="shared" ref="F3:F25" si="0">E3/D3</f>
         <v>0.220100045475216</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43918</v>
       </c>
@@ -548,7 +544,7 @@
         <v>0.91216216216216217</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43919</v>
       </c>
@@ -571,7 +567,7 @@
         <v>0.26464128843338214</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43920</v>
       </c>
@@ -594,7 +590,7 @@
         <v>0.46772366930917325</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43921</v>
       </c>
@@ -617,7 +613,7 @@
         <v>0.29240957717778909</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43922</v>
       </c>
@@ -640,7 +636,7 @@
         <v>0.28292682926829266</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43923</v>
       </c>
@@ -663,7 +659,7 @@
         <v>0.22136563876651982</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43924</v>
       </c>
@@ -686,7 +682,7 @@
         <v>0.3016453382084095</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43925</v>
       </c>
@@ -709,7 +705,7 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43926</v>
       </c>
@@ -732,7 +728,7 @@
         <v>0.56451612903225812</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43927</v>
       </c>
@@ -755,7 +751,7 @@
         <v>0.31525423728813562</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43928</v>
       </c>
@@ -778,7 +774,7 @@
         <v>0.15829318651066759</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43929</v>
       </c>
@@ -801,7 +797,7 @@
         <v>0.16624685138539042</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43930</v>
       </c>
@@ -824,7 +820,7 @@
         <v>0.15591734502191609</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43931</v>
       </c>
@@ -847,7 +843,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43932</v>
       </c>
@@ -870,7 +866,7 @@
         <v>0.49081803005008345</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43933</v>
       </c>
@@ -893,7 +889,7 @@
         <v>0.34674329501915707</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43934</v>
       </c>
@@ -915,11 +911,11 @@
         <f t="shared" si="0"/>
         <v>0.19381107491856678</v>
       </c>
-      <c r="K20" t="s">
+      <c r="I20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43935</v>
       </c>
@@ -942,7 +938,7 @@
         <v>0.22900158478605387</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43936</v>
       </c>
@@ -965,7 +961,7 @@
         <v>0.21788283658787255</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43937</v>
       </c>
@@ -988,7 +984,7 @@
         <v>0.22841225626740946</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43938</v>
       </c>
@@ -1011,7 +1007,7 @@
         <v>0.16012725344644752</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43939</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>0.15220385674931131</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43940</v>
       </c>
@@ -1057,7 +1053,7 @@
         <v>0.28446389496717722</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43941</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>0.35449735449735448</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43942</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>0.19205298013245034</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43943</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>0.25504439063761097</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43944</v>
       </c>
@@ -1152,7 +1148,7 @@
         <v>68862</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43945</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>0.25114503816793893</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43946</v>
       </c>
@@ -1198,7 +1194,7 @@
         <v>0.18190127970749542</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43947</v>
       </c>
@@ -1221,7 +1217,7 @@
         <v>0.30376940133037694</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43948</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>0.26392961876832843</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43949</v>
       </c>
@@ -1267,7 +1263,7 @@
         <v>0.18374816983894582</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43950</v>
       </c>
@@ -1290,7 +1286,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43951</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>100665</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43952</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>0.35775862068965519</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43953</v>
       </c>
@@ -1362,7 +1358,7 @@
         <v>0.56441717791411039</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43954</v>
       </c>
@@ -1385,7 +1381,7 @@
         <v>0.46616541353383456</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43955</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>0.43689320388349512</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43956</v>
       </c>
@@ -1431,7 +1427,7 @@
         <v>0.36567164179104478</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43957</v>
       </c>
@@ -1454,7 +1450,7 @@
         <v>0.41621621621621624</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43958</v>
       </c>
@@ -1480,7 +1476,7 @@
         <v>117200</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43959</v>
       </c>
@@ -1503,7 +1499,7 @@
         <v>0.40180586907449212</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43960</v>
       </c>
@@ -1526,7 +1522,7 @@
         <v>0.5239520958083832</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43961</v>
       </c>
@@ -1549,7 +1545,7 @@
         <v>0.61475409836065575</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43962</v>
       </c>
@@ -1571,16 +1567,19 @@
         <f t="shared" ref="F48" si="68">E48/D48</f>
         <v>0.38938053097345132</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>222845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43963</v>
       </c>
       <c r="G49">
         <v>146979</v>
       </c>
-      <c r="H49">
-        <v>222845</v>
+      <c r="I49" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Fecha</t>
   </si>
@@ -92,6 +92,9 @@
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1260859902098124800?s=20</t>
   </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/236181.html</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,9 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,32 +465,32 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1580,6 +1593,20 @@
       </c>
       <c r="I49" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43967</v>
+      </c>
+      <c r="G50">
+        <v>166996</v>
+      </c>
+      <c r="H50">
+        <v>272520</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/236181.html</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1263137407156785152?s=20</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,6 +1612,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43971</v>
+      </c>
+      <c r="G51">
+        <v>185787</v>
+      </c>
+      <c r="H51">
+        <v>330492</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1263137407156785152?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1264579408024743943?s=20</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,6 +1630,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43973</v>
+      </c>
+      <c r="G52">
+        <v>188159</v>
+      </c>
+      <c r="H52">
+        <v>354538</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Fecha</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1264579408024743943?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1265632601781555201?s=20</t>
   </si>
 </sst>
 </file>
@@ -459,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,6 +1647,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43976</v>
+      </c>
+      <c r="G53">
+        <v>212124</v>
+      </c>
+      <c r="H53">
+        <v>379017</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1265632601781555201?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1267085927370932224?s=20</t>
   </si>
 </sst>
 </file>
@@ -462,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,6 +1664,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43980</v>
+      </c>
+      <c r="G54">
+        <v>240223</v>
+      </c>
+      <c r="H54">
+        <v>396365</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Fecha</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1267085927370932224?s=20</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/237282.html</t>
   </si>
 </sst>
 </file>
@@ -465,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,6 +1681,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43984</v>
+      </c>
+      <c r="G55">
+        <v>249882</v>
+      </c>
+      <c r="H55">
+        <v>400044</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Fecha</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/237282.html</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1269690589844561920?s=20</t>
   </si>
 </sst>
 </file>
@@ -468,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,6 +1698,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43987</v>
+      </c>
+      <c r="G56">
+        <v>266665</v>
+      </c>
+      <c r="H56">
+        <v>420622</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Fecha</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1269690589844561920?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1270755103792914432?s=20</t>
   </si>
 </sst>
 </file>
@@ -471,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,6 +1715,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43990</v>
+      </c>
+      <c r="G57">
+        <v>268979</v>
+      </c>
+      <c r="H57">
+        <v>423857</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Fecha</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1270755103792914432?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1272190814383415302?s=20</t>
   </si>
 </sst>
 </file>
@@ -474,11 +477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,6 +1732,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43994</v>
+      </c>
+      <c r="G58">
+        <v>292842</v>
+      </c>
+      <c r="H58">
+        <v>452135</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1272190814383415302?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1273278983627554816?s=20</t>
   </si>
 </sst>
 </file>
@@ -477,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,6 +1749,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43997</v>
+      </c>
+      <c r="G59">
+        <v>300663</v>
+      </c>
+      <c r="H59">
+        <v>457810</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -480,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,6 +1763,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44001</v>
+      </c>
+      <c r="G60">
+        <v>314513</v>
+      </c>
+      <c r="H60">
+        <v>500800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Fecha</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1273278983627554816?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1275823498133454848?s=20</t>
   </si>
 </sst>
 </file>
@@ -480,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,6 +1777,20 @@
         <v>500800</v>
       </c>
     </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44004</v>
+      </c>
+      <c r="G61">
+        <v>316087</v>
+      </c>
+      <c r="H61">
+        <v>522897</v>
+      </c>
+      <c r="I61" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -483,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,6 +1791,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44008</v>
+      </c>
+      <c r="G62">
+        <v>346050</v>
+      </c>
+      <c r="H62">
+        <v>592066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Fecha</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1275823498133454848?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1279805872898813954?s=20</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AndaluciaJunta/status/1279090274862587908?s=20</t>
   </si>
 </sst>
 </file>
@@ -483,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,6 +1808,34 @@
         <v>592066</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44013</v>
+      </c>
+      <c r="G63">
+        <v>354180</v>
+      </c>
+      <c r="H63">
+        <v>606462</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44015</v>
+      </c>
+      <c r="G64">
+        <v>369139</v>
+      </c>
+      <c r="H64">
+        <v>630243</v>
+      </c>
+      <c r="I64" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1279090274862587908?s=20</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/239556.html</t>
   </si>
 </sst>
 </file>
@@ -489,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,6 +1839,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44018</v>
+      </c>
+      <c r="G65">
+        <v>375611</v>
+      </c>
+      <c r="H65">
+        <v>636032</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -492,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1853,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44022</v>
+      </c>
+      <c r="G66">
+        <v>391397</v>
+      </c>
+      <c r="H66">
+        <v>654719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -492,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,6 +1864,17 @@
         <v>654719</v>
       </c>
     </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44025</v>
+      </c>
+      <c r="G67">
+        <v>398615</v>
+      </c>
+      <c r="H67">
+        <v>657772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -492,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,6 +1875,17 @@
         <v>657772</v>
       </c>
     </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44029</v>
+      </c>
+      <c r="G68">
+        <v>415928</v>
+      </c>
+      <c r="H68">
+        <v>657772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -492,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,6 +1886,17 @@
         <v>657772</v>
       </c>
     </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44032</v>
+      </c>
+      <c r="G69">
+        <v>428205</v>
+      </c>
+      <c r="H69">
+        <v>669414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Fecha</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/239556.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/240574.html</t>
   </si>
 </sst>
 </file>
@@ -492,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,6 +1900,20 @@
         <v>669414</v>
       </c>
     </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44036</v>
+      </c>
+      <c r="G70">
+        <v>452506</v>
+      </c>
+      <c r="H70">
+        <v>676267</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Fecha</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/240574.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/240790.html</t>
   </si>
 </sst>
 </file>
@@ -495,11 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,6 +1917,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44039</v>
+      </c>
+      <c r="G71">
+        <v>465433</v>
+      </c>
+      <c r="H71">
+        <v>680247</v>
+      </c>
+      <c r="I71" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Fecha</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/240790.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/240926.html</t>
   </si>
 </sst>
 </file>
@@ -498,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,6 +1934,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44042</v>
+      </c>
+      <c r="G72">
+        <v>483398</v>
+      </c>
+      <c r="H72">
+        <v>685658</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Fecha</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/240926.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241146.html</t>
   </si>
 </sst>
 </file>
@@ -501,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,6 +1951,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44046</v>
+      </c>
+      <c r="G73">
+        <v>491527</v>
+      </c>
+      <c r="H73">
+        <v>687426</v>
+      </c>
+      <c r="I73" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Fecha</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241146.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241257.html</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,6 +1968,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44050</v>
+      </c>
+      <c r="G74">
+        <v>507120</v>
+      </c>
+      <c r="H74">
+        <v>691340</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Fecha</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241257.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241403.html</t>
   </si>
 </sst>
 </file>
@@ -507,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,6 +1985,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44053</v>
+      </c>
+      <c r="G75">
+        <v>516601</v>
+      </c>
+      <c r="H75">
+        <v>691825</v>
+      </c>
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241403.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241516.html</t>
   </si>
 </sst>
 </file>
@@ -510,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,6 +2002,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44057</v>
+      </c>
+      <c r="G76">
+        <v>538281</v>
+      </c>
+      <c r="H76">
+        <v>694765</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Fecha</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241516.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241704.html</t>
   </si>
 </sst>
 </file>
@@ -513,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,6 +2019,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44060</v>
+      </c>
+      <c r="G77">
+        <v>551783</v>
+      </c>
+      <c r="H77">
+        <v>702831</v>
+      </c>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Fecha</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241704.html</t>
+  </si>
+  <si>
+    <t>https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/241962.html</t>
   </si>
 </sst>
 </file>
@@ -516,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,6 +2036,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44067</v>
+      </c>
+      <c r="G78">
+        <v>603225</v>
+      </c>
+      <c r="H78">
+        <v>703073</v>
+      </c>
+      <c r="I78" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242277.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242408.html</t>
   </si>
 </sst>
 </file>
@@ -297,15 +300,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I79" activeCellId="0" sqref="I79"/>
+      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
@@ -1841,6 +1844,20 @@
       </c>
       <c r="I79" s="0" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>44078</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>695112</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>822167</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242408.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242619.html</t>
   </si>
 </sst>
 </file>
@@ -300,12 +303,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1860,6 +1863,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>44081</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>739720</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>837812</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242619.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242765.html</t>
   </si>
 </sst>
 </file>
@@ -303,12 +306,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I81" activeCellId="0" sqref="I81"/>
+      <selection pane="bottomLeft" activeCell="I82" activeCellId="0" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1877,6 +1880,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>44085</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>782773</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>916323</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242765.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242986.html</t>
   </si>
 </sst>
 </file>
@@ -306,12 +309,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I82" activeCellId="0" sqref="I82"/>
+      <selection pane="bottomLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1894,6 +1897,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>44088</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>812146</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>937077</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/242986.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/243138.html</t>
   </si>
 </sst>
 </file>
@@ -309,12 +312,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="I84" activeCellId="0" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1911,6 +1914,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>44092</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>862615</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>973858</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/243138.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/243354.html</t>
   </si>
 </sst>
 </file>
@@ -312,12 +315,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I84" activeCellId="0" sqref="I84"/>
+      <selection pane="bottomLeft" activeCell="I85" activeCellId="0" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1928,6 +1931,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>44095</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>893268</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>988205</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -86,6 +86,9 @@
     <t xml:space="preserve">ntestrapido</t>
   </si>
   <si>
+    <t xml:space="preserve">ntest.antigeno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notas</t>
   </si>
   <si>
@@ -189,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/243354.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/243883.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244083.html</t>
   </si>
 </sst>
 </file>
@@ -315,21 +324,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I85" activeCellId="0" sqref="I85"/>
+      <selection pane="bottomLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -357,8 +366,11 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>43916</v>
       </c>
@@ -368,11 +380,11 @@
       <c r="C2" s="0" t="n">
         <v>3793</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>43917</v>
       </c>
@@ -394,11 +406,11 @@
         <f aca="false">E3/D3</f>
         <v>0.220100045475216</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>43918</v>
       </c>
@@ -421,7 +433,7 @@
         <v>0.912162162162162</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>43919</v>
       </c>
@@ -444,7 +456,7 @@
         <v>0.264641288433382</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>43920</v>
       </c>
@@ -467,7 +479,7 @@
         <v>0.467723669309173</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>43921</v>
       </c>
@@ -490,7 +502,7 @@
         <v>0.292409577177789</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>43922</v>
       </c>
@@ -513,7 +525,7 @@
         <v>0.282926829268293</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>43923</v>
       </c>
@@ -536,7 +548,7 @@
         <v>0.22136563876652</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>43924</v>
       </c>
@@ -559,7 +571,7 @@
         <v>0.301645338208409</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>43925</v>
       </c>
@@ -582,7 +594,7 @@
         <v>0.243243243243243</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>43926</v>
       </c>
@@ -605,7 +617,7 @@
         <v>0.564516129032258</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>43927</v>
       </c>
@@ -628,7 +640,7 @@
         <v>0.315254237288136</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>43928</v>
       </c>
@@ -651,7 +663,7 @@
         <v>0.158293186510668</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>43929</v>
       </c>
@@ -674,7 +686,7 @@
         <v>0.16624685138539</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>43930</v>
       </c>
@@ -697,7 +709,7 @@
         <v>0.155917345021916</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>43931</v>
       </c>
@@ -720,7 +732,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>43932</v>
       </c>
@@ -743,7 +755,7 @@
         <v>0.490818030050083</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>43933</v>
       </c>
@@ -766,7 +778,7 @@
         <v>0.346743295019157</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>43934</v>
       </c>
@@ -788,11 +800,11 @@
         <f aca="false">E20/D20</f>
         <v>0.193811074918567</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>43935</v>
       </c>
@@ -815,7 +827,7 @@
         <v>0.229001584786054</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>43936</v>
       </c>
@@ -838,7 +850,7 @@
         <v>0.217882836587873</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>43937</v>
       </c>
@@ -861,7 +873,7 @@
         <v>0.228412256267409</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>43938</v>
       </c>
@@ -884,7 +896,7 @@
         <v>0.160127253446448</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>43939</v>
       </c>
@@ -907,7 +919,7 @@
         <v>0.152203856749311</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>43940</v>
       </c>
@@ -930,7 +942,7 @@
         <v>0.284463894967177</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>43941</v>
       </c>
@@ -953,7 +965,7 @@
         <v>0.354497354497354</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>43942</v>
       </c>
@@ -976,7 +988,7 @@
         <v>0.19205298013245</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>43943</v>
       </c>
@@ -999,7 +1011,7 @@
         <v>0.255044390637611</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>43944</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>68862</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>43945</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>0.251145038167939</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>43946</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>0.181901279707495</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>43947</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>0.303769401330377</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>43948</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>0.263929618768328</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>43949</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>0.183748169838946</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>43950</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>0.166666666666667</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>43951</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>100665</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>43952</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>0.357758620689655</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>43953</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>0.56441717791411</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>43954</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>0.466165413533835</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>43955</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>0.436893203883495</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>43956</v>
       </c>
@@ -1304,7 +1316,7 @@
         <v>0.365671641791045</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>43957</v>
       </c>
@@ -1327,7 +1339,7 @@
         <v>0.416216216216216</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43958</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>117200</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43959</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>0.401805869074492</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>43960</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>0.523952095808383</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>43961</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>0.614754098360656</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>43962</v>
       </c>
@@ -1448,18 +1460,18 @@
         <v>222845</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>146979</v>
       </c>
-      <c r="I49" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>43967</v>
       </c>
@@ -1469,11 +1481,11 @@
       <c r="H50" s="0" t="n">
         <v>272520</v>
       </c>
-      <c r="I50" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>43971</v>
       </c>
@@ -1483,11 +1495,11 @@
       <c r="H51" s="0" t="n">
         <v>330492</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>43973</v>
       </c>
@@ -1497,11 +1509,11 @@
       <c r="H52" s="0" t="n">
         <v>354538</v>
       </c>
-      <c r="I52" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>43976</v>
       </c>
@@ -1511,11 +1523,11 @@
       <c r="H53" s="0" t="n">
         <v>379017</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>43980</v>
       </c>
@@ -1525,11 +1537,11 @@
       <c r="H54" s="0" t="n">
         <v>396365</v>
       </c>
-      <c r="I54" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>43984</v>
       </c>
@@ -1539,11 +1551,11 @@
       <c r="H55" s="0" t="n">
         <v>400044</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>43987</v>
       </c>
@@ -1553,11 +1565,11 @@
       <c r="H56" s="0" t="n">
         <v>420622</v>
       </c>
-      <c r="I56" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>43990</v>
       </c>
@@ -1567,11 +1579,11 @@
       <c r="H57" s="0" t="n">
         <v>423857</v>
       </c>
-      <c r="I57" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>43994</v>
       </c>
@@ -1581,11 +1593,11 @@
       <c r="H58" s="0" t="n">
         <v>452135</v>
       </c>
-      <c r="I58" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>43997</v>
       </c>
@@ -1595,11 +1607,11 @@
       <c r="H59" s="0" t="n">
         <v>457810</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>44001</v>
       </c>
@@ -1610,7 +1622,7 @@
         <v>500800</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>44004</v>
       </c>
@@ -1620,11 +1632,11 @@
       <c r="H61" s="0" t="n">
         <v>522897</v>
       </c>
-      <c r="I61" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>44008</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>592066</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>44013</v>
       </c>
@@ -1645,11 +1657,11 @@
       <c r="H63" s="0" t="n">
         <v>606462</v>
       </c>
-      <c r="I63" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>44015</v>
       </c>
@@ -1659,11 +1671,11 @@
       <c r="H64" s="0" t="n">
         <v>630243</v>
       </c>
-      <c r="I64" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>44018</v>
       </c>
@@ -1673,11 +1685,11 @@
       <c r="H65" s="0" t="n">
         <v>636032</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>44022</v>
       </c>
@@ -1688,7 +1700,7 @@
         <v>654719</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>44025</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>657772</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>44029</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>657772</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>44032</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>669414</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>44036</v>
       </c>
@@ -1731,11 +1743,11 @@
       <c r="H70" s="0" t="n">
         <v>676267</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>44039</v>
       </c>
@@ -1745,11 +1757,11 @@
       <c r="H71" s="0" t="n">
         <v>680247</v>
       </c>
-      <c r="I71" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>44042</v>
       </c>
@@ -1759,11 +1771,11 @@
       <c r="H72" s="0" t="n">
         <v>685658</v>
       </c>
-      <c r="I72" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>44046</v>
       </c>
@@ -1773,11 +1785,11 @@
       <c r="H73" s="0" t="n">
         <v>687426</v>
       </c>
-      <c r="I73" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>44050</v>
       </c>
@@ -1787,11 +1799,11 @@
       <c r="H74" s="0" t="n">
         <v>691340</v>
       </c>
-      <c r="I74" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>44053</v>
       </c>
@@ -1801,11 +1813,11 @@
       <c r="H75" s="0" t="n">
         <v>691825</v>
       </c>
-      <c r="I75" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>44057</v>
       </c>
@@ -1815,11 +1827,11 @@
       <c r="H76" s="0" t="n">
         <v>694765</v>
       </c>
-      <c r="I76" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>44060</v>
       </c>
@@ -1829,8 +1841,8 @@
       <c r="H77" s="0" t="n">
         <v>702831</v>
       </c>
-      <c r="I77" s="0" t="s">
-        <v>34</v>
+      <c r="J77" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,8 +1855,8 @@
       <c r="H78" s="0" t="n">
         <v>703073</v>
       </c>
-      <c r="I78" s="0" t="s">
-        <v>35</v>
+      <c r="J78" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,8 +1869,8 @@
       <c r="H79" s="0" t="n">
         <v>719964</v>
       </c>
-      <c r="I79" s="0" t="s">
-        <v>36</v>
+      <c r="J79" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,8 +1883,8 @@
       <c r="H80" s="0" t="n">
         <v>822167</v>
       </c>
-      <c r="I80" s="0" t="s">
-        <v>37</v>
+      <c r="J80" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,8 +1897,8 @@
       <c r="H81" s="0" t="n">
         <v>837812</v>
       </c>
-      <c r="I81" s="0" t="s">
-        <v>38</v>
+      <c r="J81" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,8 +1911,8 @@
       <c r="H82" s="0" t="n">
         <v>916323</v>
       </c>
-      <c r="I82" s="0" t="s">
-        <v>39</v>
+      <c r="J82" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,8 +1925,8 @@
       <c r="H83" s="0" t="n">
         <v>937077</v>
       </c>
-      <c r="I83" s="0" t="s">
-        <v>40</v>
+      <c r="J83" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,8 +1939,8 @@
       <c r="H84" s="0" t="n">
         <v>973858</v>
       </c>
-      <c r="I84" s="0" t="s">
-        <v>41</v>
+      <c r="J84" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,8 +1953,42 @@
       <c r="H85" s="0" t="n">
         <v>988205</v>
       </c>
-      <c r="I85" s="0" t="s">
-        <v>42</v>
+      <c r="J85" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>44102</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>981072</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>1023395</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>2484</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>44106</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>1037640</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>1043683</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>11641</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244083.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244315.html</t>
   </si>
 </sst>
 </file>
@@ -324,12 +327,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
+      <selection pane="bottomLeft" activeCell="J88" activeCellId="0" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1991,6 +1994,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>1069799</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>1048053</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>17526</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244315.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244503.html</t>
   </si>
 </sst>
 </file>
@@ -327,12 +330,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J88" activeCellId="0" sqref="J88"/>
+      <selection pane="bottomLeft" activeCell="J89" activeCellId="0" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2011,6 +2014,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>44113</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>1124815</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>1059508</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>45009</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244503.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244889.html</t>
   </si>
 </sst>
 </file>
@@ -330,12 +333,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J89" activeCellId="0" sqref="J89"/>
+      <selection pane="bottomLeft" activeCell="J90" activeCellId="0" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2031,6 +2034,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>1197824</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>1070867</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>148649</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/244889.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/245119.html</t>
   </si>
 </sst>
 </file>
@@ -333,12 +336,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J90" activeCellId="0" sqref="J90"/>
+      <selection pane="bottomLeft" activeCell="J91" activeCellId="0" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2051,6 +2054,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>1227578</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>1073857</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>170441</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/245119.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/245296.html</t>
   </si>
 </sst>
 </file>
@@ -336,12 +339,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J91" activeCellId="0" sqref="J91"/>
+      <selection pane="bottomLeft" activeCell="J92" activeCellId="0" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2071,6 +2074,23 @@
         <v>49</v>
       </c>
     </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>1288452</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>1086506</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>252403</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/245296.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/245750.html</t>
   </si>
 </sst>
 </file>
@@ -339,12 +342,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J92" activeCellId="0" sqref="J92"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J93" activeCellId="0" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2091,6 +2094,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>44134</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>1393741</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>1099631</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>351843</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/245750.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/246159.html</t>
   </si>
 </sst>
 </file>
@@ -342,12 +345,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J93" activeCellId="0" sqref="J93"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="J94" activeCellId="0" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2111,6 +2114,23 @@
         <v>51</v>
       </c>
     </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>44141</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>1490813</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>1115042</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>444168</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/246159.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/246668.html</t>
   </si>
 </sst>
 </file>
@@ -345,12 +348,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="J94" activeCellId="0" sqref="J94"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J95" activeCellId="0" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2131,6 +2134,23 @@
         <v>52</v>
       </c>
     </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>44148</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>1592846</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>1135490</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>554471</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/246668.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/247189.html</t>
   </si>
 </sst>
 </file>
@@ -348,12 +351,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J95" activeCellId="0" sqref="J95"/>
+      <selection pane="bottomLeft" activeCell="J96" activeCellId="0" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2151,6 +2154,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>44155</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>1687612</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>1145537</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>649733</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -89,6 +89,12 @@
     <t xml:space="preserve">ntest.antigeno</t>
   </si>
   <si>
+    <t xml:space="preserve">ntest.sero.rap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntest.sero.nonrap</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notas</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/247189.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/247680.html</t>
   </si>
 </sst>
 </file>
@@ -351,12 +360,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J96" activeCellId="0" sqref="J96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="L97" activeCellId="0" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,6 +405,12 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -407,8 +422,8 @@
       <c r="C2" s="0" t="n">
         <v>3793</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="L2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,8 +448,8 @@
         <f aca="false">E3/D3</f>
         <v>0.220100045475216</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>11</v>
+      <c r="L3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,8 +842,8 @@
         <f aca="false">E20/D20</f>
         <v>0.193811074918567</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>12</v>
+      <c r="L20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,8 +1509,8 @@
       <c r="G49" s="0" t="n">
         <v>146979</v>
       </c>
-      <c r="J49" s="0" t="s">
-        <v>13</v>
+      <c r="L49" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,8 +1523,8 @@
       <c r="H50" s="0" t="n">
         <v>272520</v>
       </c>
-      <c r="J50" s="0" t="s">
-        <v>14</v>
+      <c r="L50" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,8 +1537,8 @@
       <c r="H51" s="0" t="n">
         <v>330492</v>
       </c>
-      <c r="J51" s="0" t="s">
-        <v>15</v>
+      <c r="L51" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,8 +1551,8 @@
       <c r="H52" s="0" t="n">
         <v>354538</v>
       </c>
-      <c r="J52" s="0" t="s">
-        <v>16</v>
+      <c r="L52" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,8 +1565,8 @@
       <c r="H53" s="0" t="n">
         <v>379017</v>
       </c>
-      <c r="J53" s="0" t="s">
-        <v>17</v>
+      <c r="L53" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,8 +1579,8 @@
       <c r="H54" s="0" t="n">
         <v>396365</v>
       </c>
-      <c r="J54" s="0" t="s">
-        <v>18</v>
+      <c r="L54" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,8 +1593,8 @@
       <c r="H55" s="0" t="n">
         <v>400044</v>
       </c>
-      <c r="J55" s="0" t="s">
-        <v>19</v>
+      <c r="L55" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,8 +1607,8 @@
       <c r="H56" s="0" t="n">
         <v>420622</v>
       </c>
-      <c r="J56" s="0" t="s">
-        <v>20</v>
+      <c r="L56" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,8 +1621,8 @@
       <c r="H57" s="0" t="n">
         <v>423857</v>
       </c>
-      <c r="J57" s="0" t="s">
-        <v>21</v>
+      <c r="L57" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,8 +1635,8 @@
       <c r="H58" s="0" t="n">
         <v>452135</v>
       </c>
-      <c r="J58" s="0" t="s">
-        <v>22</v>
+      <c r="L58" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,8 +1649,8 @@
       <c r="H59" s="0" t="n">
         <v>457810</v>
       </c>
-      <c r="J59" s="0" t="s">
-        <v>23</v>
+      <c r="L59" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,8 +1674,8 @@
       <c r="H61" s="0" t="n">
         <v>522897</v>
       </c>
-      <c r="J61" s="0" t="s">
-        <v>24</v>
+      <c r="L61" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,8 +1699,8 @@
       <c r="H63" s="0" t="n">
         <v>606462</v>
       </c>
-      <c r="J63" s="0" t="s">
-        <v>25</v>
+      <c r="L63" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,8 +1713,8 @@
       <c r="H64" s="0" t="n">
         <v>630243</v>
       </c>
-      <c r="J64" s="0" t="s">
-        <v>26</v>
+      <c r="L64" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,8 +1727,8 @@
       <c r="H65" s="0" t="n">
         <v>636032</v>
       </c>
-      <c r="J65" s="0" t="s">
-        <v>27</v>
+      <c r="L65" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,8 +1785,8 @@
       <c r="H70" s="0" t="n">
         <v>676267</v>
       </c>
-      <c r="J70" s="0" t="s">
-        <v>28</v>
+      <c r="L70" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,8 +1799,8 @@
       <c r="H71" s="0" t="n">
         <v>680247</v>
       </c>
-      <c r="J71" s="0" t="s">
-        <v>29</v>
+      <c r="L71" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,8 +1813,8 @@
       <c r="H72" s="0" t="n">
         <v>685658</v>
       </c>
-      <c r="J72" s="0" t="s">
-        <v>30</v>
+      <c r="L72" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,8 +1827,8 @@
       <c r="H73" s="0" t="n">
         <v>687426</v>
       </c>
-      <c r="J73" s="0" t="s">
-        <v>31</v>
+      <c r="L73" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,8 +1841,8 @@
       <c r="H74" s="0" t="n">
         <v>691340</v>
       </c>
-      <c r="J74" s="0" t="s">
-        <v>32</v>
+      <c r="L74" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,8 +1855,8 @@
       <c r="H75" s="0" t="n">
         <v>691825</v>
       </c>
-      <c r="J75" s="0" t="s">
-        <v>33</v>
+      <c r="L75" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,8 +1869,8 @@
       <c r="H76" s="0" t="n">
         <v>694765</v>
       </c>
-      <c r="J76" s="0" t="s">
-        <v>34</v>
+      <c r="L76" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,8 +1883,8 @@
       <c r="H77" s="0" t="n">
         <v>702831</v>
       </c>
-      <c r="J77" s="0" t="s">
-        <v>35</v>
+      <c r="L77" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,8 +1897,8 @@
       <c r="H78" s="0" t="n">
         <v>703073</v>
       </c>
-      <c r="J78" s="0" t="s">
-        <v>36</v>
+      <c r="L78" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,8 +1911,8 @@
       <c r="H79" s="0" t="n">
         <v>719964</v>
       </c>
-      <c r="J79" s="0" t="s">
-        <v>37</v>
+      <c r="L79" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,8 +1925,8 @@
       <c r="H80" s="0" t="n">
         <v>822167</v>
       </c>
-      <c r="J80" s="0" t="s">
-        <v>38</v>
+      <c r="L80" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,8 +1939,8 @@
       <c r="H81" s="0" t="n">
         <v>837812</v>
       </c>
-      <c r="J81" s="0" t="s">
-        <v>39</v>
+      <c r="L81" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,8 +1953,8 @@
       <c r="H82" s="0" t="n">
         <v>916323</v>
       </c>
-      <c r="J82" s="0" t="s">
-        <v>40</v>
+      <c r="L82" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,8 +1967,8 @@
       <c r="H83" s="0" t="n">
         <v>937077</v>
       </c>
-      <c r="J83" s="0" t="s">
-        <v>41</v>
+      <c r="L83" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,8 +1981,8 @@
       <c r="H84" s="0" t="n">
         <v>973858</v>
       </c>
-      <c r="J84" s="0" t="s">
-        <v>42</v>
+      <c r="L84" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,8 +1995,8 @@
       <c r="H85" s="0" t="n">
         <v>988205</v>
       </c>
-      <c r="J85" s="0" t="s">
-        <v>43</v>
+      <c r="L85" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,8 +2012,8 @@
       <c r="I86" s="0" t="n">
         <v>2484</v>
       </c>
-      <c r="J86" s="0" t="s">
-        <v>44</v>
+      <c r="L86" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,8 +2029,8 @@
       <c r="I87" s="0" t="n">
         <v>11641</v>
       </c>
-      <c r="J87" s="0" t="s">
-        <v>45</v>
+      <c r="L87" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,8 +2046,8 @@
       <c r="I88" s="0" t="n">
         <v>17526</v>
       </c>
-      <c r="J88" s="0" t="s">
-        <v>46</v>
+      <c r="L88" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,8 +2063,8 @@
       <c r="I89" s="0" t="n">
         <v>45009</v>
       </c>
-      <c r="J89" s="0" t="s">
-        <v>47</v>
+      <c r="L89" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,8 +2080,8 @@
       <c r="I90" s="0" t="n">
         <v>148649</v>
       </c>
-      <c r="J90" s="0" t="s">
-        <v>48</v>
+      <c r="L90" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,8 +2097,8 @@
       <c r="I91" s="0" t="n">
         <v>170441</v>
       </c>
-      <c r="J91" s="0" t="s">
-        <v>49</v>
+      <c r="L91" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,8 +2114,8 @@
       <c r="I92" s="0" t="n">
         <v>252403</v>
       </c>
-      <c r="J92" s="0" t="s">
-        <v>50</v>
+      <c r="L92" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,8 +2131,8 @@
       <c r="I93" s="0" t="n">
         <v>351843</v>
       </c>
-      <c r="J93" s="0" t="s">
-        <v>51</v>
+      <c r="L93" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,8 +2148,8 @@
       <c r="I94" s="0" t="n">
         <v>444168</v>
       </c>
-      <c r="J94" s="0" t="s">
-        <v>52</v>
+      <c r="L94" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,8 +2165,8 @@
       <c r="I95" s="0" t="n">
         <v>554471</v>
       </c>
-      <c r="J95" s="0" t="s">
-        <v>53</v>
+      <c r="L95" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,8 +2182,28 @@
       <c r="I96" s="0" t="n">
         <v>649733</v>
       </c>
-      <c r="J96" s="0" t="s">
-        <v>54</v>
+      <c r="L96" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>44162</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>1761770</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>839451</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>867319</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>376056</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/247680.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/248127.html</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -274,6 +277,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -326,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +349,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,12 +373,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L97" activeCellId="0" sqref="L97"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2206,6 +2219,26 @@
         <v>57</v>
       </c>
     </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>44169</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>1802464</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>926538</v>
+      </c>
+      <c r="J98" s="4" t="n">
+        <v>879741</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>384328</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/248127.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/248979.html</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,12 +280,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -352,7 +349,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,12 +370,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I99" activeCellId="0" sqref="I99"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="L99" activeCellId="0" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2239,6 +2236,26 @@
         <v>58</v>
       </c>
     </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>44183</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>1890572</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>961826</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>888690</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>392067</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/248979.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/249406.html</t>
   </si>
 </sst>
 </file>
@@ -370,18 +373,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L99" activeCellId="0" sqref="L99"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="L100" activeCellId="0" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.76"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,6 +2260,26 @@
       </c>
       <c r="L99" s="0" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>44193</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>1965415</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>1028137</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>902274</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>397681</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/249406.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/249588.html</t>
   </si>
 </sst>
 </file>
@@ -373,12 +376,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L100" activeCellId="0" sqref="L100"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="L101" activeCellId="0" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2282,6 +2285,26 @@
         <v>60</v>
       </c>
     </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>44200</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>2008619</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>1112297</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>902452</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>400973</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/249588.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/249860.html</t>
   </si>
 </sst>
 </file>
@@ -376,12 +379,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L101" activeCellId="0" sqref="L101"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="L102" activeCellId="0" sqref="L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2305,6 +2308,26 @@
         <v>61</v>
       </c>
     </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>44207</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>2072129</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>1132000</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>919200</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>413129</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/249860.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/250212.html</t>
   </si>
 </sst>
 </file>
@@ -379,12 +382,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L102" activeCellId="0" sqref="L102"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L103" activeCellId="0" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2328,6 +2331,26 @@
         <v>62</v>
       </c>
     </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>44214</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>2191153</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>1225256</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>1033152</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>417812</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/250212.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/250606.html</t>
   </si>
 </sst>
 </file>
@@ -382,12 +385,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L103" activeCellId="0" sqref="L103"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="L104" activeCellId="0" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2351,6 +2354,26 @@
         <v>63</v>
       </c>
     </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>44221</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>2337057</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>1346290</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>1040911</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>420952</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/250606.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/250950.html</t>
   </si>
 </sst>
 </file>
@@ -385,12 +388,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L104" activeCellId="0" sqref="L104"/>
+      <selection pane="bottomLeft" activeCell="L105" activeCellId="0" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,6 +2377,26 @@
         <v>64</v>
       </c>
     </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>2467875</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>1465343</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>1048454</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>424464</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/250950.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/251379.html</t>
   </si>
 </sst>
 </file>
@@ -388,12 +391,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L105" activeCellId="0" sqref="L105"/>
+      <selection pane="bottomLeft" activeCell="L106" activeCellId="0" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2397,6 +2400,26 @@
         <v>65</v>
       </c>
     </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>44235</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>2644406</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>1568104</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>1054351</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>428239</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/251379.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/252210.html</t>
   </si>
 </sst>
 </file>
@@ -391,12 +394,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L106" activeCellId="0" sqref="L106"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L107" activeCellId="0" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2420,6 +2423,26 @@
         <v>66</v>
       </c>
     </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>44249</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>2815519</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>1707648</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>1013272</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>456118</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/252210.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/252669.html</t>
   </si>
 </sst>
 </file>
@@ -394,12 +397,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L107" activeCellId="0" sqref="L107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="L108" activeCellId="0" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2443,6 +2446,26 @@
         <v>67</v>
       </c>
     </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>44257</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>2867186</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>1770107</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>1016381</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>458707</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/252669.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/253326.html</t>
   </si>
 </sst>
 </file>
@@ -397,12 +400,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L108" activeCellId="0" sqref="L108"/>
+      <selection pane="bottomLeft" activeCell="L109" activeCellId="0" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2466,6 +2469,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>44263</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>2914364</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>1823966</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>1018185</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>460169</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/253326.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/253704.html</t>
   </si>
 </sst>
 </file>
@@ -400,12 +403,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L109" activeCellId="0" sqref="L109"/>
+      <selection pane="bottomLeft" activeCell="L110" activeCellId="0" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2489,6 +2492,26 @@
         <v>69</v>
       </c>
     </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>44270</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>2968341</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>1871256</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>1022475</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>461638</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/253704.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/254223.html</t>
   </si>
 </sst>
 </file>
@@ -403,12 +406,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L110" activeCellId="0" sqref="L110"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="L111" activeCellId="0" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2512,6 +2515,26 @@
         <v>70</v>
       </c>
     </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>44277</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>3032581</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>1926243</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>1029222</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>463167</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/254223.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/254774.html</t>
   </si>
 </sst>
 </file>
@@ -406,12 +409,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L111" activeCellId="0" sqref="L111"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="L112" activeCellId="0" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2535,6 +2538,26 @@
         <v>71</v>
       </c>
     </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>3089777</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>1979705</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>1030743</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>464955</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/254774.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/255062.html</t>
   </si>
 </sst>
 </file>
@@ -409,12 +412,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L112" activeCellId="0" sqref="L112"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K114" activeCellId="0" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2558,6 +2561,26 @@
         <v>72</v>
       </c>
     </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>44291</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>3134213</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>2026140</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>1031474</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>465789</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/datos/test_Andalucia.xlsx
+++ b/datos/test_Andalucia.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/255062.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/255779.html</t>
   </si>
 </sst>
 </file>
@@ -412,12 +415,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K114" activeCellId="0" sqref="K114"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="L114" activeCellId="0" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2581,6 +2584,26 @@
         <v>73</v>
       </c>
     </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>44298</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>3207090</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>2098665</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>1036371</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>467354</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
